--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -4,19 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Subscription" sheetId="1" r:id="rId1"/>
     <sheet name="ServicePrincipal" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Scheduler" sheetId="3" r:id="rId3"/>
+    <sheet name="Operations" sheetId="4" r:id="rId4"/>
+    <sheet name="DataFlow" sheetId="5" r:id="rId5"/>
+    <sheet name="COperation" sheetId="6" r:id="rId6"/>
+    <sheet name="Storage&amp;Service" sheetId="7" r:id="rId7"/>
+    <sheet name="Path" sheetId="8" r:id="rId8"/>
+    <sheet name="SystemParam" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="137">
   <si>
     <t>Name</t>
   </si>
@@ -65,26 +71,395 @@
     </r>
   </si>
   <si>
-    <t>WebJobTest</t>
-  </si>
-  <si>
-    <t>7493db8d-2b3e-4b43-a02e-5f8ec31ddadf</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> This is the service principal to access data factory</t>
-  </si>
-  <si>
     <t>+aLJ8PY2yIk0e/RflXGNY5UYakx40BJIiwo109cTwbE=</t>
   </si>
   <si>
-    <t>azue</t>
+    <t>sadsdsdasfssdfsdfasdfsdf</t>
+  </si>
+  <si>
+    <t>sdasadsdasdasdasdasfsdfdfgjkkffffffffffffffffffffgee</t>
+  </si>
+  <si>
+    <t>Updated Description</t>
+  </si>
+  <si>
+    <t>key updated</t>
+  </si>
+  <si>
+    <t>DirectoryID</t>
+  </si>
+  <si>
+    <t>Abc</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>8493db8=dadf</t>
+  </si>
+  <si>
+    <t>849=5f8ec31ddadf</t>
+  </si>
+  <si>
+    <t>This is the service principal to access data factory</t>
+  </si>
+  <si>
+    <t>azuers</t>
+  </si>
+  <si>
+    <t>This Page Scheduled Flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is Updated Description </t>
+  </si>
+  <si>
+    <t>7493db8d-2b3e-4b43-a02e-5t8ec31ddadf</t>
+  </si>
+  <si>
+    <t>0493db8d-2b3e-4b43-a02e-5t8ec31ddadf</t>
+  </si>
+  <si>
+    <t>WebTest</t>
+  </si>
+  <si>
+    <t>TestAzure</t>
+  </si>
+  <si>
+    <t>09cb5a1a-1dae-487e-88ff-2d2bac272da9</t>
+  </si>
+  <si>
+    <t>02cb5a1a-1dae-487e-88ff-2d2bac272da2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name </t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>ClassName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is jar related operation </t>
+  </si>
+  <si>
+    <t>Classname</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Union -jar</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>Dbfsuri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is python related operation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is Description </t>
+  </si>
+  <si>
+    <t>Script</t>
+  </si>
+  <si>
+    <t>C://Data</t>
+  </si>
+  <si>
+    <t>Addition-Notebook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is notebook operation </t>
+  </si>
+  <si>
+    <t>C://Drive</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>Dummy data</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>Repostiory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Package Notebook </t>
+  </si>
+  <si>
+    <t>Repo Notebook</t>
+  </si>
+  <si>
+    <t>Subtraction-Exe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is Exe operation </t>
+  </si>
+  <si>
+    <t>D://Data</t>
+  </si>
+  <si>
+    <t>This is Description</t>
+  </si>
+  <si>
+    <t>Union-jar-Updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated Description </t>
+  </si>
+  <si>
+    <t>Updated Command</t>
+  </si>
+  <si>
+    <t>Updated Desc</t>
+  </si>
+  <si>
+    <t>Updated Classname</t>
+  </si>
+  <si>
+    <t>Updated Script</t>
+  </si>
+  <si>
+    <t>Addition-Notebook-Updated</t>
+  </si>
+  <si>
+    <t>Subtraction-Exe-Updated</t>
+  </si>
+  <si>
+    <t>DataFlow_1_7</t>
+  </si>
+  <si>
+    <t>This Flow is for Testing Purpose</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Destination </t>
+  </si>
+  <si>
+    <t>This is Updated Description</t>
+  </si>
+  <si>
+    <t>CustomActivity</t>
+  </si>
+  <si>
+    <t>Test Operation</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>OrderNo</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Subscription</t>
+  </si>
+  <si>
+    <t>Dev</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>SecretKey</t>
+  </si>
+  <si>
+    <t>Secretvalue</t>
+  </si>
+  <si>
+    <t>DBServerName</t>
+  </si>
+  <si>
+    <t>DBName</t>
+  </si>
+  <si>
+    <t>IntegrationRunTime</t>
+  </si>
+  <si>
+    <t>integrationRuntime1</t>
+  </si>
+  <si>
+    <t>ResourceGroupName</t>
+  </si>
+  <si>
+    <t>This is Source</t>
+  </si>
+  <si>
+    <t>Office123#</t>
+  </si>
+  <si>
+    <t>CloudBlazeDB</t>
+  </si>
+  <si>
+    <t>CB0Demo1</t>
+  </si>
+  <si>
+    <t>SCR-Python</t>
+  </si>
+  <si>
+    <t>SCR-Python-Updated</t>
+  </si>
+  <si>
+    <t>DESKTOP-QBFAO6R\\SQLEXPRESS01</t>
+  </si>
+  <si>
+    <t>DestinationPchauhan_11_7</t>
+  </si>
+  <si>
+    <t>Pchauhan_11_7</t>
+  </si>
+  <si>
+    <t>Mergeopr</t>
+  </si>
+  <si>
+    <t>Blob Read</t>
+  </si>
+  <si>
+    <t>metadata/on premise sql/cloudblazedb/201907/26/metadata.txt</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>DESKTOP-QBFAO6R\\Nitesh Thakur</t>
+  </si>
+  <si>
+    <t>O127</t>
+  </si>
+  <si>
+    <t>sourceauto12345678</t>
+  </si>
+  <si>
+    <t>Source Name Should Start from Smalll letter , because Blob File is Creted in Small letter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> String postJsonData = "{'lastUpdatedAfter' - For this line Update Date</t>
+  </si>
+  <si>
+    <t>sp_13_9</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>DestinationAuto</t>
+  </si>
+  <si>
+    <t>NameD</t>
+  </si>
+  <si>
+    <t>AzureDataLakeAuto</t>
+  </si>
+  <si>
+    <t>DataStorage</t>
+  </si>
+  <si>
+    <t>RGN</t>
+  </si>
+  <si>
+    <t>This is Description For Destination</t>
+  </si>
+  <si>
+    <t>adl://cb0oanfb2ihritaidemo1dl.azuredatalakestore.net/</t>
+  </si>
+  <si>
+    <t>DFN</t>
+  </si>
+  <si>
+    <t>cb0oanfb2ihritaidemo1df</t>
+  </si>
+  <si>
+    <t>batchAuto</t>
+  </si>
+  <si>
+    <t>This is Batch</t>
+  </si>
+  <si>
+    <t>batch12</t>
+  </si>
+  <si>
+    <t>ZkR+9gF8iJaImDSEDJQl0N5+3lGCbI+E0bMWSUTGjtFNl70YrSqnO1WDVTI+I2/fcN7TT0iR4pRqGq5xALRsAg==</t>
+  </si>
+  <si>
+    <t>AccountName</t>
+  </si>
+  <si>
+    <t>cb0oanfb2ihritaidemo1ba</t>
+  </si>
+  <si>
+    <t>PoolName</t>
+  </si>
+  <si>
+    <t>pool02</t>
+  </si>
+  <si>
+    <t>batchURI</t>
+  </si>
+  <si>
+    <t>https://cb0oanfb2ihritaidemo1ba.westus2.batch.azure.com</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Prichau21@gmail.com</t>
+  </si>
+  <si>
+    <t>GridName</t>
+  </si>
+  <si>
+    <t>Grid123</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>TenantId</t>
+  </si>
+  <si>
+    <t>PrimaryEmail</t>
+  </si>
+  <si>
+    <t>SecondaryEmail</t>
+  </si>
+  <si>
+    <t>75d882a4-ad3a-4376-a4aa-0a65afef99d2</t>
+  </si>
+  <si>
+    <t>prashant.chaudhari@rawcubes.com</t>
+  </si>
+  <si>
+    <t>pravesh.ksharma@rawcubes.com</t>
+  </si>
+  <si>
+    <t>85d882a4-ad3a-4376-a4aa-0a65afef99d3</t>
+  </si>
+  <si>
+    <t>prichau21@gmail.com</t>
+  </si>
+  <si>
+    <t>priyankachauhan21@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,16 +475,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -117,16 +512,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -426,15 +884,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" customWidth="1"/>
     <col min="2" max="2" width="36.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5546875" customWidth="1"/>
   </cols>
@@ -452,7 +910,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -470,6 +928,19 @@
       </c>
       <c r="C3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -480,21 +951,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
     <col min="2" max="2" width="36.5546875" customWidth="1"/>
-    <col min="3" max="3" width="42.77734375" customWidth="1"/>
+    <col min="3" max="3" width="46.6640625" customWidth="1"/>
     <col min="4" max="4" width="49.33203125" customWidth="1"/>
+    <col min="5" max="5" width="42.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -502,24 +974,61 @@
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -530,12 +1039,700 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="35.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="87.5546875" customWidth="1"/>
+    <col min="7" max="7" width="33" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="9" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="13" max="13" width="28.6640625" customWidth="1"/>
+    <col min="14" max="14" width="47.33203125" customWidth="1"/>
+    <col min="15" max="15" width="11.21875" customWidth="1"/>
+    <col min="16" max="16" width="22.109375" customWidth="1"/>
+    <col min="17" max="17" width="10.88671875" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50.21875" customWidth="1"/>
+    <col min="21" max="21" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="M3" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="T2" r:id="rId1"/>
+    <hyperlink ref="U2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="52.5546875" customWidth="1"/>
+    <col min="2" max="2" width="57" customWidth="1"/>
+    <col min="3" max="3" width="55.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -16,13 +16,14 @@
     <sheet name="Storage&amp;Service" sheetId="7" r:id="rId7"/>
     <sheet name="Path" sheetId="8" r:id="rId8"/>
     <sheet name="SystemParam" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="212">
   <si>
     <t>Name</t>
   </si>
@@ -119,9 +120,6 @@
     <t>0493db8d-2b3e-4b43-a02e-5t8ec31ddadf</t>
   </si>
   <si>
-    <t>WebTest</t>
-  </si>
-  <si>
     <t>TestAzure</t>
   </si>
   <si>
@@ -143,21 +141,9 @@
     <t xml:space="preserve">This is jar related operation </t>
   </si>
   <si>
-    <t>Classname</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>Union -jar</t>
-  </si>
-  <si>
-    <t>Int</t>
-  </si>
-  <si>
     <t>Dbfsuri</t>
   </si>
   <si>
@@ -173,9 +159,6 @@
     <t>C://Data</t>
   </si>
   <si>
-    <t>Addition-Notebook</t>
-  </si>
-  <si>
     <t xml:space="preserve">This is notebook operation </t>
   </si>
   <si>
@@ -236,9 +219,6 @@
     <t>Subtraction-Exe-Updated</t>
   </si>
   <si>
-    <t>DataFlow_1_7</t>
-  </si>
-  <si>
     <t>This Flow is for Testing Purpose</t>
   </si>
   <si>
@@ -290,9 +270,6 @@
     <t>IntegrationRunTime</t>
   </si>
   <si>
-    <t>integrationRuntime1</t>
-  </si>
-  <si>
     <t>ResourceGroupName</t>
   </si>
   <si>
@@ -302,157 +279,406 @@
     <t>Office123#</t>
   </si>
   <si>
+    <t>CB0Demo1</t>
+  </si>
+  <si>
+    <t>SCR-Python</t>
+  </si>
+  <si>
+    <t>SCR-Python-Updated</t>
+  </si>
+  <si>
+    <t>Mergeopr</t>
+  </si>
+  <si>
+    <t>Blob Read</t>
+  </si>
+  <si>
+    <t>metadata/on premise sql/cloudblazedb/201907/26/metadata.txt</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>O127</t>
+  </si>
+  <si>
+    <t>sourceauto12345678</t>
+  </si>
+  <si>
+    <t>Source Name Should Start from Smalll letter , because Blob File is Creted in Small letter</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>DestinationAuto</t>
+  </si>
+  <si>
+    <t>NameD</t>
+  </si>
+  <si>
+    <t>DataStorage</t>
+  </si>
+  <si>
+    <t>RGN</t>
+  </si>
+  <si>
+    <t>This is Description For Destination</t>
+  </si>
+  <si>
+    <t>adl://cb0oanfb2ihritaidemo1dl.azuredatalakestore.net/</t>
+  </si>
+  <si>
+    <t>DFN</t>
+  </si>
+  <si>
+    <t>cb0oanfb2ihritaidemo1df</t>
+  </si>
+  <si>
+    <t>batchAuto</t>
+  </si>
+  <si>
+    <t>This is Batch</t>
+  </si>
+  <si>
+    <t>batch12</t>
+  </si>
+  <si>
+    <t>ZkR+9gF8iJaImDSEDJQl0N5+3lGCbI+E0bMWSUTGjtFNl70YrSqnO1WDVTI+I2/fcN7TT0iR4pRqGq5xALRsAg==</t>
+  </si>
+  <si>
+    <t>AccountName</t>
+  </si>
+  <si>
+    <t>cb0oanfb2ihritaidemo1ba</t>
+  </si>
+  <si>
+    <t>PoolName</t>
+  </si>
+  <si>
+    <t>pool02</t>
+  </si>
+  <si>
+    <t>batchURI</t>
+  </si>
+  <si>
+    <t>https://cb0oanfb2ihritaidemo1ba.westus2.batch.azure.com</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>GridName</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>TenantId</t>
+  </si>
+  <si>
+    <t>PrimaryEmail</t>
+  </si>
+  <si>
+    <t>SecondaryEmail</t>
+  </si>
+  <si>
+    <t>75d882a4-ad3a-4376-a4aa-0a65afef99d2</t>
+  </si>
+  <si>
+    <t>prashant.chaudhari@rawcubes.com</t>
+  </si>
+  <si>
+    <t>pravesh.ksharma@rawcubes.com</t>
+  </si>
+  <si>
+    <t>85d882a4-ad3a-4376-a4aa-0a65afef99d3</t>
+  </si>
+  <si>
+    <t>prichau21@gmail.com</t>
+  </si>
+  <si>
+    <t>priyankachauhan21@gmail.com</t>
+  </si>
+  <si>
+    <t>BGName</t>
+  </si>
+  <si>
+    <t>LAPTOP-2G86F66K\\Lenovo</t>
+  </si>
+  <si>
+    <t>DescriptionSource</t>
+  </si>
+  <si>
+    <t>LAPTOP-2G86F66K\\SQLEXPRESS</t>
+  </si>
+  <si>
+    <t>ChicagoDatabase</t>
+  </si>
+  <si>
+    <t>PriyankaKey</t>
+  </si>
+  <si>
+    <t>Azure Function</t>
+  </si>
+  <si>
+    <t>Azure_Function</t>
+  </si>
+  <si>
+    <t>https://functionapptestfordf.azurewebsites.net</t>
+  </si>
+  <si>
+    <t>cloudblaze@rawcubes.com</t>
+  </si>
+  <si>
+    <t>azure_c3ef8800dba77de5ab07913965260507@azure.com</t>
+  </si>
+  <si>
+    <t>EmailServerKey</t>
+  </si>
+  <si>
+    <t>Cblaze@123</t>
+  </si>
+  <si>
+    <t>HostName</t>
+  </si>
+  <si>
+    <t>smtp.sendgrid.net</t>
+  </si>
+  <si>
+    <t>PortNo</t>
+  </si>
+  <si>
+    <t>07cb4a1a-1dae-487e-88ff-2d2bac272da3</t>
+  </si>
+  <si>
+    <t>Oracle_Source</t>
+  </si>
+  <si>
+    <t>This is oracle Source</t>
+  </si>
+  <si>
+    <t>priyanka</t>
+  </si>
+  <si>
+    <t>LAPTOP-2G86F66K</t>
+  </si>
+  <si>
+    <t>xe</t>
+  </si>
+  <si>
+    <t>Azure_Sql_Destination</t>
+  </si>
+  <si>
+    <t>This is Azure Sql Destination</t>
+  </si>
+  <si>
+    <t>cbadmin</t>
+  </si>
+  <si>
+    <t>cloudblazenewuiserver.database.windows.net</t>
+  </si>
+  <si>
+    <t>1521</t>
+  </si>
+  <si>
+    <t>587</t>
+  </si>
+  <si>
+    <t>DataFlowOraceltoadls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is for </t>
+  </si>
+  <si>
+    <t>DataFlowOracletoAzureSql</t>
+  </si>
+  <si>
+    <t>DataFlowSQLtoADLS</t>
+  </si>
+  <si>
     <t>CloudBlazeDB</t>
   </si>
   <si>
-    <t>CB0Demo1</t>
-  </si>
-  <si>
-    <t>SCR-Python</t>
-  </si>
-  <si>
-    <t>SCR-Python-Updated</t>
-  </si>
-  <si>
-    <t>DESKTOP-QBFAO6R\\SQLEXPRESS01</t>
-  </si>
-  <si>
-    <t>DestinationPchauhan_11_7</t>
-  </si>
-  <si>
-    <t>Pchauhan_11_7</t>
-  </si>
-  <si>
-    <t>Mergeopr</t>
-  </si>
-  <si>
-    <t>Blob Read</t>
-  </si>
-  <si>
-    <t>metadata/on premise sql/cloudblazedb/201907/26/metadata.txt</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>DESKTOP-QBFAO6R\\Nitesh Thakur</t>
-  </si>
-  <si>
-    <t>O127</t>
-  </si>
-  <si>
-    <t>sourceauto12345678</t>
-  </si>
-  <si>
-    <t>Source Name Should Start from Smalll letter , because Blob File is Creted in Small letter</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> String postJsonData = "{'lastUpdatedAfter' - For this line Update Date</t>
-  </si>
-  <si>
-    <t>sp_13_9</t>
-  </si>
-  <si>
-    <t>Destination</t>
-  </si>
-  <si>
-    <t>DestinationAuto</t>
-  </si>
-  <si>
-    <t>NameD</t>
-  </si>
-  <si>
-    <t>AzureDataLakeAuto</t>
-  </si>
-  <si>
-    <t>DataStorage</t>
-  </si>
-  <si>
-    <t>RGN</t>
-  </si>
-  <si>
-    <t>This is Description For Destination</t>
-  </si>
-  <si>
-    <t>adl://cb0oanfb2ihritaidemo1dl.azuredatalakestore.net/</t>
-  </si>
-  <si>
-    <t>DFN</t>
-  </si>
-  <si>
-    <t>cb0oanfb2ihritaidemo1df</t>
-  </si>
-  <si>
-    <t>batchAuto</t>
-  </si>
-  <si>
-    <t>This is Batch</t>
-  </si>
-  <si>
-    <t>batch12</t>
-  </si>
-  <si>
-    <t>ZkR+9gF8iJaImDSEDJQl0N5+3lGCbI+E0bMWSUTGjtFNl70YrSqnO1WDVTI+I2/fcN7TT0iR4pRqGq5xALRsAg==</t>
-  </si>
-  <si>
-    <t>AccountName</t>
-  </si>
-  <si>
-    <t>cb0oanfb2ihritaidemo1ba</t>
-  </si>
-  <si>
-    <t>PoolName</t>
-  </si>
-  <si>
-    <t>pool02</t>
-  </si>
-  <si>
-    <t>batchURI</t>
-  </si>
-  <si>
-    <t>https://cb0oanfb2ihritaidemo1ba.westus2.batch.azure.com</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Prichau21@gmail.com</t>
-  </si>
-  <si>
-    <t>GridName</t>
-  </si>
-  <si>
-    <t>Grid123</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>TenantId</t>
-  </si>
-  <si>
-    <t>PrimaryEmail</t>
-  </si>
-  <si>
-    <t>SecondaryEmail</t>
-  </si>
-  <si>
-    <t>75d882a4-ad3a-4376-a4aa-0a65afef99d2</t>
-  </si>
-  <si>
-    <t>prashant.chaudhari@rawcubes.com</t>
-  </si>
-  <si>
-    <t>pravesh.ksharma@rawcubes.com</t>
-  </si>
-  <si>
-    <t>85d882a4-ad3a-4376-a4aa-0a65afef99d3</t>
-  </si>
-  <si>
-    <t>prichau21@gmail.com</t>
-  </si>
-  <si>
-    <t>priyankachauhan21@gmail.com</t>
+    <t>SourceOracletoadls</t>
+  </si>
+  <si>
+    <t>Source_SQLtoSQL</t>
+  </si>
+  <si>
+    <t>AzureSqltoSql</t>
+  </si>
+  <si>
+    <t>DataFlowSQLtoSQL</t>
+  </si>
+  <si>
+    <t>Source_SQLtoadlsCDC</t>
+  </si>
+  <si>
+    <t>This is SQL source</t>
+  </si>
+  <si>
+    <t>AzureDataLakeCDC</t>
+  </si>
+  <si>
+    <t>DataFlowSQLtoADLSCDC</t>
+  </si>
+  <si>
+    <t>Tablename</t>
+  </si>
+  <si>
+    <t>superstoresales</t>
+  </si>
+  <si>
+    <t>Source_OracletoadlsCDC</t>
+  </si>
+  <si>
+    <t>This is Adls Destination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oracle to Adls CDC Flow is for Testing Purpose </t>
+  </si>
+  <si>
+    <t>DataFlowOracletoADLSCDC</t>
+  </si>
+  <si>
+    <t>DestinationOracletoadlsCDC</t>
+  </si>
+  <si>
+    <t>SUPERSTORESALES</t>
+  </si>
+  <si>
+    <t>UnionjarAuto</t>
+  </si>
+  <si>
+    <t>com.acompany.pipeline.custom.CustomJarTestExample_1</t>
+  </si>
+  <si>
+    <t>actionName</t>
+  </si>
+  <si>
+    <t>subActionName</t>
+  </si>
+  <si>
+    <t>NotebookAuto</t>
+  </si>
+  <si>
+    <t>AdlsDestinationAuto</t>
+  </si>
+  <si>
+    <t>Source_SQlADLS_Auto</t>
+  </si>
+  <si>
+    <t>AzureDataLakeDestinationAuto</t>
+  </si>
+  <si>
+    <t>QA_spAuto</t>
+  </si>
+  <si>
+    <t>E:\\File</t>
+  </si>
+  <si>
+    <t>DFFiletoadls</t>
+  </si>
+  <si>
+    <t>File to adls Flow for Testing Purpose</t>
+  </si>
+  <si>
+    <t>Source_Mysql</t>
+  </si>
+  <si>
+    <t>This is Mysql Source</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>localhost</t>
+  </si>
+  <si>
+    <t>cloudblazedb</t>
+  </si>
+  <si>
+    <t>3306</t>
+  </si>
+  <si>
+    <t>Destmysqltoadls</t>
+  </si>
+  <si>
+    <t>DataFlowMysqltoadls</t>
+  </si>
+  <si>
+    <t>Mysql to Adls Flow</t>
+  </si>
+  <si>
+    <t>Source_MysqlCDC</t>
+  </si>
+  <si>
+    <t>DestmysqltoadlsCDC</t>
+  </si>
+  <si>
+    <t>DFmysqltoadlsCDC</t>
+  </si>
+  <si>
+    <t>Mysql to Adls Flow CDC</t>
+  </si>
+  <si>
+    <t>superstore</t>
+  </si>
+  <si>
+    <t>Source_mysqlAuto</t>
+  </si>
+  <si>
+    <t>Destmysqltosql</t>
+  </si>
+  <si>
+    <t>DFmysqltoSQL</t>
+  </si>
+  <si>
+    <t>MysqltoSQLFlow</t>
+  </si>
+  <si>
+    <t>AzureSql_Auto</t>
+  </si>
+  <si>
+    <t>Source_File_Auto</t>
+  </si>
+  <si>
+    <t>AdlsDestination_Auto</t>
+  </si>
+  <si>
+    <t>SqlToAdlsDM</t>
+  </si>
+  <si>
+    <t>This is Sql Source</t>
+  </si>
+  <si>
+    <t>DestADLSDM</t>
+  </si>
+  <si>
+    <t>DFSqltoadlsDM</t>
+  </si>
+  <si>
+    <t>OracletoadlsDM</t>
+  </si>
+  <si>
+    <t>This is Oracle Source</t>
+  </si>
+  <si>
+    <t>DestADlsDMO</t>
+  </si>
+  <si>
+    <t>DFOracletoadlsDM</t>
+  </si>
+  <si>
+    <t>DFMysqltoadlsDM</t>
+  </si>
+  <si>
+    <t>DestADlsDMM</t>
+  </si>
+  <si>
+    <t>MysqltoadlsDM</t>
   </si>
 </sst>
 </file>
@@ -552,11 +778,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -566,9 +796,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -576,11 +805,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -887,7 +1121,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -898,54 +1132,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>75</v>
-      </c>
+      <c r="A5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -954,7 +1205,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -967,28 +1218,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -1002,10 +1253,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
@@ -1051,19 +1302,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>73</v>
+      <c r="B2" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1082,7 +1333,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1091,237 +1342,238 @@
     <col min="2" max="2" width="35.109375" customWidth="1"/>
     <col min="3" max="3" width="17.21875" customWidth="1"/>
     <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="56.6640625" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="38.33203125" customWidth="1"/>
     <col min="8" max="8" width="11.44140625" customWidth="1"/>
     <col min="9" max="9" width="16.6640625" customWidth="1"/>
     <col min="10" max="10" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="I4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="G5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1331,61 +1583,224 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.21875" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="C1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>209</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1406,23 +1821,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>72</v>
+      <c r="A1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>73</v>
+      <c r="A2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C5" s="7"/>
+      <c r="C5" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1432,229 +1847,679 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
-    <col min="4" max="4" width="29.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="74.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="4" max="4" width="49.21875" customWidth="1"/>
     <col min="5" max="5" width="14.109375" customWidth="1"/>
     <col min="6" max="6" width="87.5546875" customWidth="1"/>
-    <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="40.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" customWidth="1"/>
     <col min="9" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="11" max="11" width="19.21875" customWidth="1"/>
+    <col min="12" max="12" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="28.6640625" customWidth="1"/>
-    <col min="14" max="14" width="47.33203125" customWidth="1"/>
+    <col min="14" max="14" width="21.88671875" customWidth="1"/>
     <col min="15" max="15" width="11.21875" customWidth="1"/>
     <col min="16" max="16" width="22.109375" customWidth="1"/>
     <col min="17" max="17" width="10.88671875" customWidth="1"/>
     <col min="18" max="18" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="50.21875" customWidth="1"/>
-    <col min="21" max="21" width="20" customWidth="1"/>
+    <col min="21" max="21" width="28.77734375" customWidth="1"/>
+    <col min="22" max="22" width="46.77734375" customWidth="1"/>
+    <col min="23" max="23" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="J1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="N1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="O1" s="6" t="s">
+      <c r="K2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="X2" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="X3" s="3"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="L16" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
         <v>87</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="M3" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="T2" r:id="rId1"/>
     <hyperlink ref="U2" r:id="rId2"/>
+    <hyperlink ref="V3" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="F4" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1670,7 +2535,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1694,36 +2559,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>130</v>
+      <c r="A1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>133</v>
+      <c r="A2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>136</v>
+      <c r="A3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552" activeTab="4"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="23028" windowHeight="13176" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Subscription" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="SystemParam" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -564,9 +564,6 @@
     <t>NotebookAuto</t>
   </si>
   <si>
-    <t>AdlsDestinationAuto</t>
-  </si>
-  <si>
     <t>Source_SQlADLS_Auto</t>
   </si>
   <si>
@@ -679,6 +676,9 @@
   </si>
   <si>
     <t>MysqltoadlsDM</t>
+  </si>
+  <si>
+    <t>AdlsDestinationAutomation</t>
   </si>
 </sst>
 </file>
@@ -826,6 +826,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1253,7 +1256,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
@@ -1585,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1627,10 +1630,10 @@
         <v>58</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>63</v>
@@ -1721,10 +1724,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1733,10 +1736,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1745,24 +1748,24 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>192</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>197</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1779,7 +1782,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1789,7 +1792,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1799,7 +1802,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -1849,8 +1852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1958,7 +1961,7 @@
         <v>68</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>76</v>
@@ -1988,7 +1991,7 @@
         <v>89</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>93</v>
@@ -2065,7 +2068,7 @@
         <v>127</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X3" s="3"/>
     </row>
@@ -2164,7 +2167,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -2282,7 +2285,7 @@
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -2294,7 +2297,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -2312,21 +2315,21 @@
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2334,7 +2337,7 @@
         <v>163</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>163</v>
@@ -2350,16 +2353,16 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -2372,7 +2375,7 @@
         <v>163</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>163</v>
@@ -2392,10 +2395,10 @@
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -2406,7 +2409,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>163</v>
@@ -2445,10 +2448,10 @@
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -2459,7 +2462,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -2468,26 +2471,26 @@
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="L16" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -2498,7 +2501,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="23028" windowHeight="13176" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="23028" windowHeight="13176" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Subscription" sheetId="1" r:id="rId1"/>
@@ -1588,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1852,7 +1852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
